--- a/docs_and_reports/PaymentServiceProviders.xlsx
+++ b/docs_and_reports/PaymentServiceProviders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
   <si>
     <t>Наименование</t>
   </si>
@@ -353,6 +353,36 @@
   </si>
   <si>
     <t>ПЛАТРОН</t>
+  </si>
+  <si>
+    <t>https://www.platron.ru/</t>
+  </si>
+  <si>
+    <t>2.7-3.1%</t>
+  </si>
+  <si>
+    <t>3.2-3.5%</t>
+  </si>
+  <si>
+    <t>2.5-3%</t>
+  </si>
+  <si>
+    <t>3.6-4%</t>
+  </si>
+  <si>
+    <t>2.7-6%</t>
+  </si>
+  <si>
+    <t>Компания Platron готова обсудить размер комиссии.</t>
+  </si>
+  <si>
+    <t>Тарифная сетка не является окончательным предложением. Комиссия может взиматься как с покупателя, так и с владельца интернет-магазина.</t>
+  </si>
+  <si>
+    <t>Стандартные условия предполагают абонентскую плату. Не сотрудничают с физическими лицами.</t>
+  </si>
+  <si>
+    <t>Platron сотрудничает с PayPal.</t>
   </si>
 </sst>
 </file>
@@ -844,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="L31" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1690,10 +1720,10 @@
         <v>104</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>97</v>
@@ -1702,22 +1732,22 @@
         <v>70</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0.06</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>100</v>
@@ -1737,12 +1767,14 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -1759,7 +1791,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1781,7 +1813,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
